--- a/Win_Home/toui/JAVA/NumGame/Input/Kazan2_test.xlsx
+++ b/Win_Home/toui/JAVA/NumGame/Input/Kazan2_test.xlsx
@@ -19,16 +19,241 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="59">
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>[8, 9]</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[4, 5]</t>
+  </si>
+  <si>
+    <t>[5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>[3, 5, 6]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[3, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>[2, 3]</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 2]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 7]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 7]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>[4, 5, 7]</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 7]</t>
+  </si>
+  <si>
+    <t>[1, 3]</t>
+  </si>
+  <si>
+    <t>1ループ結果入力済</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[4, 5, 6, 7, 8, 9]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[4, 5, 6, 7, 8, 9]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[4, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>[4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[4, 5, 6, 7, 8, 9]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2ループ結果入力済</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[4, 5, 6, 7, 8]</t>
+  </si>
+  <si>
+    <t>[6, 7, 8]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>[2, 3, 5]</t>
+  </si>
+  <si>
+    <t>[6, 7, 8, 9]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[2, 3, 5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[2, 3, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 7]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3ループ結果入力済</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[5, 6, 7, 8]</t>
+  </si>
+  <si>
+    <t>[2, 5]</t>
+  </si>
+  <si>
+    <t>[5, 6, 7, 8, 9]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[5, 6, 7]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[3, 4, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>[6, 7]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>[5, 6, 7, 8, 9]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[2, 3, 4, 6]</t>
+  </si>
+  <si>
+    <t>[4, 6, 7, 8, 9]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4ループ結果入力済</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +413,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +610,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,6 +872,159 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,400 +1382,1576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="10" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>1700</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="1">
         <v>2000</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E2" s="1">
         <v>4100</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F2" s="1">
         <v>1500</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G2" s="1">
         <v>800</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H2" s="1">
         <v>3800</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I2" s="1">
         <v>1900</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J2" s="1">
         <v>1500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>39</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>9</v>
-      </c>
-      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>821</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>821</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>930</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1">
         <v>1100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4206</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4206</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2226</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>1100</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>2103</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
         <v>1715</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
         <v>2200</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J8" s="1">
         <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>707</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1">
+        <v>707</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>619</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>619</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>1341</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1">
         <v>1100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>13</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="B16" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="E16" s="1">
+        <v>4100</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="1">
+        <v>800</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3800</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>821</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="B19" s="1">
+        <v>930</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4206</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2226</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="B22" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2103</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1715</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2200</v>
+      </c>
+      <c r="J22" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="1">
+        <v>707</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
+        <v>619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="B25" s="1">
+        <v>1341</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="B30" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4100</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G30" s="1">
+        <v>800</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3800</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>39</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>821</v>
+      </c>
+      <c r="E32" s="3">
         <v>4</v>
       </c>
-      <c r="I12">
+      <c r="F32" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="B33" s="1">
+        <v>930</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4206</v>
+      </c>
+      <c r="H34" s="3">
+        <v>3</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>17</v>
+      </c>
+      <c r="B35" s="3">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2226</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2103</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1715</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2200</v>
+      </c>
+      <c r="J36" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>25</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="1">
+        <v>707</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>8</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="1">
+        <v>619</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1341</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>34</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="1">
+        <v>13</v>
+      </c>
+      <c r="I40" s="3">
+        <v>5</v>
+      </c>
+      <c r="J40" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>22</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4100</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G44" s="1">
+        <v>800</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3800</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>39</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>9</v>
+      </c>
+      <c r="B46" s="3">
+        <v>8</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>821</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="3">
+        <v>5</v>
+      </c>
+      <c r="I46" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>930</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>25</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4206</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3">
+        <v>9</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2226</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="J49" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2103</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1715</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2200</v>
+      </c>
+      <c r="J50" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>25</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="1">
+        <v>707</v>
+      </c>
+      <c r="I51" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>8</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="1">
+        <v>619</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1341</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>34</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="1">
+        <v>13</v>
+      </c>
+      <c r="I54" s="3">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>22</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="1">
+        <v>4</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Win_Home/toui/JAVA/NumGame/Input/Kazan2_test.xlsx
+++ b/Win_Home/toui/JAVA/NumGame/Input/Kazan2_test.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0145180153\Documents\個人\NumGame\Input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="10470"/>
+    <workbookView xWindow="540" yWindow="0" windowWidth="18380" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Kazan2_test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="61">
   <si>
     <t>-</t>
   </si>
@@ -208,14 +208,6 @@
     <t>[2, 5]</t>
   </si>
   <si>
-    <t>[5, 6, 7, 8, 9]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>[5, 6, 7]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>[3, 4, 5, 6, 7]</t>
   </si>
   <si>
@@ -225,15 +217,7 @@
     <t>[2, 3, 4, 5, 6, 7]</t>
   </si>
   <si>
-    <t>[5, 6, 7, 8, 9]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>[2, 3, 4, 6]</t>
-  </si>
-  <si>
-    <t>[4, 6, 7, 8, 9]</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>4ループ結果入力済</t>
@@ -248,16 +232,47 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>[5, 6, 7, 8, 9]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[5, 6, 7, 8, 9]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[5, 6, 7]</t>
+  </si>
+  <si>
+    <t>[4, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>5ループ結果入力済</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -265,7 +280,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -273,7 +288,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="游ゴシック Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -282,7 +297,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -291,7 +306,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -300,7 +315,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -308,7 +323,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -316,7 +331,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -324,7 +339,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -332,7 +347,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -341,7 +356,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -350,7 +365,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -358,7 +373,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -367,7 +382,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -375,7 +390,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -384,7 +399,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -393,7 +408,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -401,21 +416,39 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -736,7 +769,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,8 +896,32 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,95 +1039,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+  <cellStyles count="50">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="无色" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="说明文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1128,7 +1150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1180,7 +1202,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1374,7 +1396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1382,23 +1404,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1452,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -1462,7 +1484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -1494,7 +1516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1548,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -1558,7 +1580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>17</v>
       </c>
@@ -1590,7 +1612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1644,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>25</v>
       </c>
@@ -1654,7 +1676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1686,7 +1708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1740,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>34</v>
       </c>
@@ -1750,7 +1772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>22</v>
       </c>
@@ -1782,12 +1804,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1841,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -1851,7 +1873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -1883,7 +1905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1937,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>25</v>
       </c>
@@ -1947,7 +1969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1979,7 +2001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2033,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -2043,7 +2065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -2075,7 +2097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2107,7 +2129,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>34</v>
       </c>
@@ -2139,7 +2161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -2171,12 +2193,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" s="19" customFormat="1">
       <c r="A29" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" s="19" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2230,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" s="19" customFormat="1">
       <c r="A31" s="1">
         <v>12</v>
       </c>
@@ -2240,7 +2262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" s="19" customFormat="1">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -2272,7 +2294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" s="19" customFormat="1">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2326,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" s="19" customFormat="1">
       <c r="A34" s="1">
         <v>25</v>
       </c>
@@ -2336,7 +2358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" s="19" customFormat="1">
       <c r="A35" s="1">
         <v>17</v>
       </c>
@@ -2368,7 +2390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" s="19" customFormat="1">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -2400,7 +2422,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" s="19" customFormat="1">
       <c r="A37" s="1">
         <v>25</v>
       </c>
@@ -2432,7 +2454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" s="19" customFormat="1">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -2464,7 +2486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" s="19" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2518,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" s="19" customFormat="1">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -2528,7 +2550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" s="19" customFormat="1">
       <c r="A41" s="1">
         <v>22</v>
       </c>
@@ -2560,12 +2582,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" s="37" customFormat="1">
       <c r="A43" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="37" customFormat="1">
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2619,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" s="37" customFormat="1">
       <c r="A45" s="1">
         <v>12</v>
       </c>
@@ -2610,26 +2632,26 @@
       <c r="D45" s="1">
         <v>39</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="37" t="s">
+      <c r="I45" s="38" t="s">
         <v>37</v>
       </c>
       <c r="J45" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" s="37" customFormat="1">
       <c r="A46" s="1">
         <v>9</v>
       </c>
@@ -2648,68 +2670,68 @@
       <c r="F46" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G46" s="39" t="s">
         <v>16</v>
       </c>
       <c r="H46" s="3">
         <v>5</v>
       </c>
-      <c r="I46" s="41" t="s">
+      <c r="I46" s="39" t="s">
         <v>17</v>
       </c>
       <c r="J46" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" s="37" customFormat="1">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="1">
         <v>930</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="37" t="s">
+      <c r="E47" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I47" s="44" t="s">
-        <v>19</v>
+      <c r="I47" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="J47" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" s="37" customFormat="1">
       <c r="A48" s="1">
         <v>25</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="37" t="s">
+      <c r="E48" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="38" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="1">
@@ -2725,7 +2747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" s="37" customFormat="1">
       <c r="A49" s="1">
         <v>17</v>
       </c>
@@ -2738,26 +2760,26 @@
       <c r="D49" s="1">
         <v>2226</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="47" t="s">
+      <c r="I49" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H49" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="I49" s="49" t="s">
-        <v>54</v>
-      </c>
       <c r="J49" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" s="37" customFormat="1">
       <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
@@ -2776,10 +2798,10 @@
       <c r="F50" s="1">
         <v>1715</v>
       </c>
-      <c r="G50" s="37" t="s">
+      <c r="G50" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="37" t="s">
+      <c r="H50" s="38" t="s">
         <v>6</v>
       </c>
       <c r="I50" s="1">
@@ -2789,122 +2811,122 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" s="37" customFormat="1">
       <c r="A51" s="1">
         <v>25</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="37" t="s">
+      <c r="E51" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="37" t="s">
+      <c r="G51" s="38" t="s">
         <v>18</v>
       </c>
       <c r="H51" s="1">
         <v>707</v>
       </c>
-      <c r="I51" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="J51" s="37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I51" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="37" customFormat="1">
       <c r="A52" s="1">
         <v>8</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="37" t="s">
+      <c r="C52" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="38" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="1">
         <v>619</v>
       </c>
-      <c r="F52" s="37" t="s">
+      <c r="F52" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="37" t="s">
+      <c r="G52" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="37" t="s">
+      <c r="H52" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="37" t="s">
+      <c r="I52" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="37" t="s">
+      <c r="J52" s="38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" s="37" customFormat="1">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="1">
         <v>1341</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="3">
         <v>2</v>
       </c>
-      <c r="F53" s="37" t="s">
+      <c r="F53" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="37" t="s">
+      <c r="G53" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="37" t="s">
+      <c r="H53" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I53" s="52" t="s">
-        <v>57</v>
+      <c r="I53" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="J53" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" s="37" customFormat="1">
       <c r="A54" s="1">
         <v>34</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="37" t="s">
+      <c r="F54" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="37" t="s">
+      <c r="G54" s="38" t="s">
         <v>18</v>
       </c>
       <c r="H54" s="1">
@@ -2917,26 +2939,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" s="37" customFormat="1">
       <c r="A55" s="1">
         <v>22</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="37" t="s">
+      <c r="F55" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="37" t="s">
+      <c r="G55" s="38" t="s">
         <v>27</v>
       </c>
       <c r="H55" s="1">
@@ -2946,12 +2968,406 @@
         <v>1</v>
       </c>
       <c r="J55" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="38" customFormat="1">
+      <c r="A57" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="38" customFormat="1">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4100</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G58" s="1">
+        <v>800</v>
+      </c>
+      <c r="H58" s="1">
+        <v>3800</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="38" customFormat="1">
+      <c r="A59" s="1">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>39</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="38" customFormat="1">
+      <c r="A60" s="1">
+        <v>9</v>
+      </c>
+      <c r="B60" s="3">
+        <v>8</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>821</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5</v>
+      </c>
+      <c r="I60" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="38" customFormat="1">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1">
+        <v>930</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="38" customFormat="1">
+      <c r="A62" s="1">
+        <v>25</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4206</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="38" customFormat="1">
+      <c r="A63" s="1">
+        <v>17</v>
+      </c>
+      <c r="B63" s="3">
+        <v>8</v>
+      </c>
+      <c r="C63" s="3">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2226</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H63" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="38" customFormat="1">
+      <c r="A64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2103</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1715</v>
+      </c>
+      <c r="G64" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2200</v>
+      </c>
+      <c r="J64" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="38" customFormat="1">
+      <c r="A65" s="1">
+        <v>25</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="1">
+        <v>707</v>
+      </c>
+      <c r="I65" s="40">
+        <v>6</v>
+      </c>
+      <c r="J65" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="38" customFormat="1">
+      <c r="A66" s="1">
+        <v>8</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="1">
+        <v>619</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="38" customFormat="1">
+      <c r="A67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1341</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="38" customFormat="1">
+      <c r="A68" s="1">
+        <v>34</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="1">
+        <v>13</v>
+      </c>
+      <c r="I68" s="3">
+        <v>5</v>
+      </c>
+      <c r="J68" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="38" customFormat="1">
+      <c r="A69" s="1">
+        <v>22</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" s="1">
+        <v>4</v>
+      </c>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Win_Home/toui/JAVA/NumGame/Input/Kazan2_test.xlsx
+++ b/Win_Home/toui/JAVA/NumGame/Input/Kazan2_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="0" windowWidth="18380" windowHeight="13680"/>
+    <workbookView xWindow="520" yWindow="120" windowWidth="16820" windowHeight="13480"/>
   </bookViews>
   <sheets>
     <sheet name="Kazan2_test" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="73">
   <si>
     <t>-</t>
   </si>
@@ -217,9 +217,6 @@
     <t>[2, 3, 4, 5, 6, 7]</t>
   </si>
   <si>
-    <t>[2, 3, 4, 6]</t>
-  </si>
-  <si>
     <t>4ループ結果入力済</t>
     <rPh sb="4" eb="6">
       <t>ケッカ</t>
@@ -262,6 +259,95 @@
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[1, 2, 3, 5, 6]</t>
+  </si>
+  <si>
+    <t>[2, 3, 7, 8]</t>
+  </si>
+  <si>
+    <t>[7, 8]</t>
+  </si>
+  <si>
+    <t>6ループ結果入力済</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>7ループ結果入力済</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[1, 3, 4, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>8ループ結果入力済</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[1, 4, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>9ループ結果入力済</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[4, 5, 6, 8, 9]</t>
+  </si>
+  <si>
+    <t>10ループ結果入力済</t>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[4, 5, 8, 9]</t>
+  </si>
+  <si>
+    <t>[6, 8, 9]</t>
   </si>
 </sst>
 </file>
@@ -769,7 +855,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,6 +980,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,7 +1182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="68">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1069,6 +1209,15 @@
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="无色" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
@@ -1089,6 +1238,15 @@
     <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="说明文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
@@ -1396,7 +1554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1404,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2584,7 +2742,7 @@
     </row>
     <row r="43" spans="1:10" s="37" customFormat="1">
       <c r="A43" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="37" customFormat="1">
@@ -2693,11 +2851,11 @@
       <c r="C47" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="38" t="s">
-        <v>13</v>
+      <c r="D47" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" s="38" t="s">
         <v>9</v>
@@ -2709,7 +2867,7 @@
         <v>41</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J47" s="1">
         <v>1100</v>
@@ -2729,7 +2887,7 @@
         <v>43</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F48" s="38" t="s">
         <v>23</v>
@@ -2761,7 +2919,7 @@
         <v>2226</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F49" s="38" t="s">
         <v>9</v>
@@ -2816,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C51" s="38" t="s">
         <v>12</v>
@@ -2836,11 +2994,11 @@
       <c r="H51" s="1">
         <v>707</v>
       </c>
-      <c r="I51" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J51" s="3">
-        <v>2</v>
+      <c r="I51" s="40">
+        <v>6</v>
+      </c>
+      <c r="J51" s="38" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="37" customFormat="1">
@@ -2901,7 +3059,7 @@
         <v>34</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J53" s="1">
         <v>1100</v>
@@ -2973,7 +3131,7 @@
     </row>
     <row r="57" spans="1:10" s="38" customFormat="1">
       <c r="A57" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="38" customFormat="1">
@@ -3082,11 +3240,11 @@
       <c r="C61" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="38" t="s">
-        <v>13</v>
+      <c r="D61" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F61" s="38" t="s">
         <v>9</v>
@@ -3098,7 +3256,7 @@
         <v>41</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J61" s="1">
         <v>1100</v>
@@ -3118,7 +3276,7 @@
         <v>43</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F62" s="38" t="s">
         <v>23</v>
@@ -3150,7 +3308,7 @@
         <v>2226</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F63" s="38" t="s">
         <v>9</v>
@@ -3205,7 +3363,7 @@
         <v>25</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C65" s="38" t="s">
         <v>12</v>
@@ -3229,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="J65" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="38" customFormat="1">
@@ -3257,8 +3415,8 @@
       <c r="H66" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="38" t="s">
-        <v>46</v>
+      <c r="I66" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="J66" s="38" t="s">
         <v>20</v>
@@ -3290,7 +3448,7 @@
         <v>34</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J67" s="1">
         <v>1100</v>
@@ -3357,6 +3515,1960 @@
         <v>1</v>
       </c>
       <c r="J69" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4100</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G72" s="1">
+        <v>800</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3800</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>12</v>
+      </c>
+      <c r="B73" s="4">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>39</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J73" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3">
+        <v>8</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>821</v>
+      </c>
+      <c r="E74" s="3">
+        <v>4</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="3">
+        <v>5</v>
+      </c>
+      <c r="I74" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1">
+        <v>930</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>25</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="1">
+        <v>4206</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>17</v>
+      </c>
+      <c r="B77" s="3">
+        <v>8</v>
+      </c>
+      <c r="C77" s="3">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2226</v>
+      </c>
+      <c r="E77" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H77" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J77" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2103</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1715</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2200</v>
+      </c>
+      <c r="J78" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>25</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="1">
+        <v>707</v>
+      </c>
+      <c r="I79" s="40">
+        <v>6</v>
+      </c>
+      <c r="J79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>8</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="1">
+        <v>619</v>
+      </c>
+      <c r="F80" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J80" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1341</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2</v>
+      </c>
+      <c r="F81" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>34</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="1">
+        <v>13</v>
+      </c>
+      <c r="I82" s="3">
+        <v>5</v>
+      </c>
+      <c r="J82" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>22</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="1">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="38" customFormat="1">
+      <c r="A85" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="38" customFormat="1">
+      <c r="A86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>4100</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G86" s="1">
+        <v>800</v>
+      </c>
+      <c r="H86" s="1">
+        <v>3800</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="38" customFormat="1">
+      <c r="A87" s="1">
+        <v>12</v>
+      </c>
+      <c r="B87" s="4">
+        <v>9</v>
+      </c>
+      <c r="C87" s="3">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>39</v>
+      </c>
+      <c r="E87" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J87" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="38" customFormat="1">
+      <c r="A88" s="1">
+        <v>9</v>
+      </c>
+      <c r="B88" s="3">
+        <v>8</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>821</v>
+      </c>
+      <c r="E88" s="3">
+        <v>4</v>
+      </c>
+      <c r="F88" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="3">
+        <v>5</v>
+      </c>
+      <c r="I88" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="38" customFormat="1">
+      <c r="A89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1">
+        <v>930</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F89" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J89" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="38" customFormat="1">
+      <c r="A90" s="1">
+        <v>25</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="1">
+        <v>4206</v>
+      </c>
+      <c r="H90" s="3">
+        <v>3</v>
+      </c>
+      <c r="I90" s="3">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="38" customFormat="1">
+      <c r="A91" s="1">
+        <v>17</v>
+      </c>
+      <c r="B91" s="3">
+        <v>8</v>
+      </c>
+      <c r="C91" s="3">
+        <v>9</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2226</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I91" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J91" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="38" customFormat="1">
+      <c r="A92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2103</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1715</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="1">
+        <v>2200</v>
+      </c>
+      <c r="J92" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="38" customFormat="1">
+      <c r="A93" s="1">
+        <v>25</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="1">
+        <v>707</v>
+      </c>
+      <c r="I93" s="40">
+        <v>6</v>
+      </c>
+      <c r="J93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="38" customFormat="1">
+      <c r="A94" s="1">
+        <v>8</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="1">
+        <v>619</v>
+      </c>
+      <c r="F94" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="40">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="38" customFormat="1">
+      <c r="A95" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1341</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2</v>
+      </c>
+      <c r="F95" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="38" customFormat="1">
+      <c r="A96" s="1">
+        <v>34</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="1">
+        <v>13</v>
+      </c>
+      <c r="I96" s="3">
+        <v>5</v>
+      </c>
+      <c r="J96" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="38" customFormat="1">
+      <c r="A97" s="1">
+        <v>22</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" s="1">
+        <v>4</v>
+      </c>
+      <c r="I97" s="3">
+        <v>1</v>
+      </c>
+      <c r="J97" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="38" customFormat="1">
+      <c r="A99" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="38" customFormat="1">
+      <c r="A100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>4100</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G100" s="1">
+        <v>800</v>
+      </c>
+      <c r="H100" s="1">
+        <v>3800</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="38" customFormat="1">
+      <c r="A101" s="1">
+        <v>12</v>
+      </c>
+      <c r="B101" s="4">
+        <v>9</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1">
+        <v>39</v>
+      </c>
+      <c r="E101" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I101" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J101" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="38" customFormat="1">
+      <c r="A102" s="1">
+        <v>9</v>
+      </c>
+      <c r="B102" s="3">
+        <v>8</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>821</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4</v>
+      </c>
+      <c r="F102" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3">
+        <v>5</v>
+      </c>
+      <c r="I102" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="38" customFormat="1">
+      <c r="A103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1">
+        <v>930</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E103" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I103" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="38" customFormat="1">
+      <c r="A104" s="1">
+        <v>25</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+      <c r="C104" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F104" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" s="1">
+        <v>4206</v>
+      </c>
+      <c r="H104" s="3">
+        <v>3</v>
+      </c>
+      <c r="I104" s="3">
+        <v>1</v>
+      </c>
+      <c r="J104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="38" customFormat="1">
+      <c r="A105" s="1">
+        <v>17</v>
+      </c>
+      <c r="B105" s="3">
+        <v>8</v>
+      </c>
+      <c r="C105" s="3">
+        <v>9</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2226</v>
+      </c>
+      <c r="E105" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H105" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I105" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J105" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="38" customFormat="1">
+      <c r="A106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2103</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1715</v>
+      </c>
+      <c r="G106" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="1">
+        <v>2200</v>
+      </c>
+      <c r="J106" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="38" customFormat="1">
+      <c r="A107" s="1">
+        <v>25</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="1">
+        <v>707</v>
+      </c>
+      <c r="I107" s="40">
+        <v>6</v>
+      </c>
+      <c r="J107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="38" customFormat="1">
+      <c r="A108" s="1">
+        <v>8</v>
+      </c>
+      <c r="B108" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="1">
+        <v>619</v>
+      </c>
+      <c r="F108" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G108" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" s="40">
+        <v>1</v>
+      </c>
+      <c r="I108" s="40">
+        <v>3</v>
+      </c>
+      <c r="J108" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="38" customFormat="1">
+      <c r="A109" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1341</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="3">
+        <v>2</v>
+      </c>
+      <c r="F109" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H109" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109" s="40">
+        <v>7</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="38" customFormat="1">
+      <c r="A110" s="1">
+        <v>34</v>
+      </c>
+      <c r="B110" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="1">
+        <v>13</v>
+      </c>
+      <c r="I110" s="3">
+        <v>5</v>
+      </c>
+      <c r="J110" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="38" customFormat="1">
+      <c r="A111" s="1">
+        <v>22</v>
+      </c>
+      <c r="B111" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" s="1">
+        <v>4</v>
+      </c>
+      <c r="I111" s="3">
+        <v>1</v>
+      </c>
+      <c r="J111" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="38" customFormat="1">
+      <c r="A113" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="38" customFormat="1">
+      <c r="A114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>4100</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G114" s="1">
+        <v>800</v>
+      </c>
+      <c r="H114" s="1">
+        <v>3800</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J114" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="38" customFormat="1">
+      <c r="A115" s="1">
+        <v>12</v>
+      </c>
+      <c r="B115" s="4">
+        <v>9</v>
+      </c>
+      <c r="C115" s="3">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1">
+        <v>39</v>
+      </c>
+      <c r="E115" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I115" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J115" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="38" customFormat="1">
+      <c r="A116" s="1">
+        <v>9</v>
+      </c>
+      <c r="B116" s="3">
+        <v>8</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>821</v>
+      </c>
+      <c r="E116" s="3">
+        <v>4</v>
+      </c>
+      <c r="F116" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" s="3">
+        <v>5</v>
+      </c>
+      <c r="I116" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="38" customFormat="1">
+      <c r="A117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="1">
+        <v>930</v>
+      </c>
+      <c r="C117" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F117" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I117" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J117" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="38" customFormat="1">
+      <c r="A118" s="1">
+        <v>25</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1</v>
+      </c>
+      <c r="C118" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F118" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" s="1">
+        <v>4206</v>
+      </c>
+      <c r="H118" s="3">
+        <v>3</v>
+      </c>
+      <c r="I118" s="3">
+        <v>1</v>
+      </c>
+      <c r="J118" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="38" customFormat="1">
+      <c r="A119" s="1">
+        <v>17</v>
+      </c>
+      <c r="B119" s="3">
+        <v>8</v>
+      </c>
+      <c r="C119" s="3">
+        <v>9</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2226</v>
+      </c>
+      <c r="E119" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F119" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H119" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I119" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J119" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="38" customFormat="1">
+      <c r="A120" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2103</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>2</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1715</v>
+      </c>
+      <c r="G120" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120" s="1">
+        <v>2200</v>
+      </c>
+      <c r="J120" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="38" customFormat="1">
+      <c r="A121" s="1">
+        <v>25</v>
+      </c>
+      <c r="B121" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E121" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="1">
+        <v>707</v>
+      </c>
+      <c r="I121" s="40">
+        <v>6</v>
+      </c>
+      <c r="J121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="38" customFormat="1">
+      <c r="A122" s="1">
+        <v>8</v>
+      </c>
+      <c r="B122" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="1">
+        <v>619</v>
+      </c>
+      <c r="F122" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G122" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H122" s="40">
+        <v>1</v>
+      </c>
+      <c r="I122" s="40">
+        <v>3</v>
+      </c>
+      <c r="J122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="38" customFormat="1">
+      <c r="A123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1341</v>
+      </c>
+      <c r="C123" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D123" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="3">
+        <v>2</v>
+      </c>
+      <c r="F123" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H123" s="3">
+        <v>6</v>
+      </c>
+      <c r="I123" s="40">
+        <v>7</v>
+      </c>
+      <c r="J123" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="38" customFormat="1">
+      <c r="A124" s="1">
+        <v>34</v>
+      </c>
+      <c r="B124" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="1">
+        <v>13</v>
+      </c>
+      <c r="I124" s="3">
+        <v>5</v>
+      </c>
+      <c r="J124" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="38" customFormat="1">
+      <c r="A125" s="1">
+        <v>22</v>
+      </c>
+      <c r="B125" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E125" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" s="1">
+        <v>4</v>
+      </c>
+      <c r="I125" s="3">
+        <v>1</v>
+      </c>
+      <c r="J125" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="38" customFormat="1">
+      <c r="A127" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="38" customFormat="1">
+      <c r="A128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>4100</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G128" s="1">
+        <v>800</v>
+      </c>
+      <c r="H128" s="1">
+        <v>3800</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J128" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="38" customFormat="1">
+      <c r="A129" s="1">
+        <v>12</v>
+      </c>
+      <c r="B129" s="4">
+        <v>9</v>
+      </c>
+      <c r="C129" s="3">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1">
+        <v>39</v>
+      </c>
+      <c r="E129" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F129" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I129" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J129" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="38" customFormat="1">
+      <c r="A130" s="1">
+        <v>9</v>
+      </c>
+      <c r="B130" s="3">
+        <v>8</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>821</v>
+      </c>
+      <c r="E130" s="3">
+        <v>4</v>
+      </c>
+      <c r="F130" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130" s="3">
+        <v>5</v>
+      </c>
+      <c r="I130" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="38" customFormat="1">
+      <c r="A131" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="1">
+        <v>930</v>
+      </c>
+      <c r="C131" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E131" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F131" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H131" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I131" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J131" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="38" customFormat="1">
+      <c r="A132" s="1">
+        <v>25</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1</v>
+      </c>
+      <c r="C132" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F132" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" s="1">
+        <v>4206</v>
+      </c>
+      <c r="H132" s="3">
+        <v>3</v>
+      </c>
+      <c r="I132" s="3">
+        <v>1</v>
+      </c>
+      <c r="J132" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="38" customFormat="1">
+      <c r="A133" s="1">
+        <v>17</v>
+      </c>
+      <c r="B133" s="3">
+        <v>8</v>
+      </c>
+      <c r="C133" s="3">
+        <v>9</v>
+      </c>
+      <c r="D133" s="1">
+        <v>2226</v>
+      </c>
+      <c r="E133" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F133" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H133" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I133" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J133" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="38" customFormat="1">
+      <c r="A134" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2103</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+      <c r="E134" s="3">
+        <v>2</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1715</v>
+      </c>
+      <c r="G134" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H134" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I134" s="1">
+        <v>2200</v>
+      </c>
+      <c r="J134" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="38" customFormat="1">
+      <c r="A135" s="1">
+        <v>25</v>
+      </c>
+      <c r="B135" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="1">
+        <v>707</v>
+      </c>
+      <c r="I135" s="40">
+        <v>6</v>
+      </c>
+      <c r="J135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="38" customFormat="1">
+      <c r="A136" s="1">
+        <v>8</v>
+      </c>
+      <c r="B136" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136" s="1">
+        <v>619</v>
+      </c>
+      <c r="F136" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G136" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" s="40">
+        <v>1</v>
+      </c>
+      <c r="I136" s="40">
+        <v>3</v>
+      </c>
+      <c r="J136" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="38" customFormat="1">
+      <c r="A137" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1341</v>
+      </c>
+      <c r="C137" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D137" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="3">
+        <v>2</v>
+      </c>
+      <c r="F137" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G137" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H137" s="3">
+        <v>6</v>
+      </c>
+      <c r="I137" s="40">
+        <v>7</v>
+      </c>
+      <c r="J137" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="38" customFormat="1">
+      <c r="A138" s="1">
+        <v>34</v>
+      </c>
+      <c r="B138" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C138" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E138" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="1">
+        <v>13</v>
+      </c>
+      <c r="I138" s="3">
+        <v>5</v>
+      </c>
+      <c r="J138" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="38" customFormat="1">
+      <c r="A139" s="1">
+        <v>22</v>
+      </c>
+      <c r="B139" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H139" s="1">
+        <v>4</v>
+      </c>
+      <c r="I139" s="3">
+        <v>1</v>
+      </c>
+      <c r="J139" s="3">
         <v>3</v>
       </c>
     </row>
